--- a/extras/Lockdown Periods Dates.xlsx
+++ b/extras/Lockdown Periods Dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/ndcn0490_ox_ac_uk/Documents/Documents/OPTIMA cancer and covid project/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbarclay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{69170A51-9F9F-4427-AADD-9C8CC8AD7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643B01C3-273F-4EE8-8386-EA20B1F1B9E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19D45D-B1C7-4DC0-A674-3A2BCA1CC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{25751271-C419-4724-817E-5F9FA84B675C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Easing of Restrictions (April 2021 - June 2021)</t>
   </si>
   <si>
-    <t>Legal Restrictions Removed (July 2021 - July 2022)</t>
+    <t>Legal Restrictions Removed (July 2021 - Jan 2022)</t>
   </si>
 </sst>
 </file>
@@ -101,11 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +422,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +453,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -516,7 +515,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="2">
-        <v>44743</v>
+        <v>44562</v>
       </c>
     </row>
   </sheetData>

--- a/extras/Lockdown Periods Dates.xlsx
+++ b/extras/Lockdown Periods Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbarclay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19D45D-B1C7-4DC0-A674-3A2BCA1CC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA3129D-A72A-4341-87E4-AFCD488C647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{25751271-C419-4724-817E-5F9FA84B675C}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Easing of Restrictions (April 2021 - June 2021)</t>
   </si>
   <si>
-    <t>Legal Restrictions Removed (July 2021 - Jan 2022)</t>
+    <t>Legal Restrictions Removed (July 2021 - Dec 2021)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="2">
-        <v>44562</v>
+        <v>44531</v>
       </c>
     </row>
   </sheetData>
